--- a/NewTODOLists/src/TestCase/EXercise-TestCase.xlsx
+++ b/NewTODOLists/src/TestCase/EXercise-TestCase.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14390" windowHeight="6190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>ProjectName</t>
   </si>
@@ -271,6 +272,27 @@
   </si>
   <si>
     <t>All the selected Checkbox ToDoList Should be checked</t>
+  </si>
+  <si>
+    <t>server opened</t>
+  </si>
+  <si>
+    <t>Server should opened</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Url Opened</t>
+  </si>
+  <si>
+    <t>Url Should be opened</t>
+  </si>
+  <si>
+    <t>Headline is shown "NSS-TODO List v 1.1"</t>
+  </si>
+  <si>
+    <t>1."Finish NSS-TODO  (Work) (25/02/2019)" has shown as output with checkbox</t>
   </si>
 </sst>
 </file>
@@ -679,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="A1:L28"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,9 +828,15 @@
       <c r="H8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -824,9 +852,15 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.35">
@@ -841,10 +875,14 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -870,7 +908,9 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -888,7 +928,9 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.35">
@@ -906,7 +948,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="110" customHeight="1" x14ac:dyDescent="0.35">
@@ -921,10 +965,14 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.35">
@@ -946,7 +994,9 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.35">
@@ -964,7 +1014,9 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1000,7 +1052,9 @@
         <v>75</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.35">
@@ -1026,7 +1080,9 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1044,7 +1100,9 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1062,7 +1120,9 @@
         <v>68</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1090,7 +1150,9 @@
         <v>80</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1108,7 +1170,9 @@
         <v>81</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1126,7 +1190,9 @@
         <v>66</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1144,7 +1210,9 @@
         <v>63</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1168,7 +1236,9 @@
         <v>82</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1186,7 +1256,9 @@
         <v>84</v>
       </c>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1204,7 +1276,9 @@
         <v>64</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.35">

--- a/NewTODOLists/src/TestCase/EXercise-TestCase.xlsx
+++ b/NewTODOLists/src/TestCase/EXercise-TestCase.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14390" windowHeight="6190"/>
+    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>ProjectName</t>
   </si>
@@ -61,9 +60,6 @@
     <t>ExpectedResult</t>
   </si>
   <si>
-    <t>ActualeResult</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -244,9 +240,6 @@
     <t>Type "Cooking Spaghetti"</t>
   </si>
   <si>
-    <t>"Cooking Spaghetti (14/02/2019) (Leisure)" will be shown as output with checkbox</t>
-  </si>
-  <si>
     <t>ModifyExistingTodos</t>
   </si>
   <si>
@@ -259,9 +252,6 @@
     <t>4. Click on Complete Button</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Finish NSS-TODO" checklist Should be selected</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Finish NSS-TODO" checklist should be cut through as done</t>
   </si>
   <si>
@@ -274,25 +264,19 @@
     <t>All the selected Checkbox ToDoList Should be checked</t>
   </si>
   <si>
-    <t>server opened</t>
-  </si>
-  <si>
-    <t>Server should opened</t>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>Cooking Spaghetti (14/02/2019) (Leisure) will be shown as output with checkbox</t>
+  </si>
+  <si>
+    <t>Finish NSS-TODO checklist Should be selected</t>
+  </si>
+  <si>
+    <t>As Expected</t>
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>Url Opened</t>
-  </si>
-  <si>
-    <t>Url Should be opened</t>
-  </si>
-  <si>
-    <t>Headline is shown "NSS-TODO List v 1.1"</t>
-  </si>
-  <si>
-    <t>1."Finish NSS-TODO  (Work) (25/02/2019)" has shown as output with checkbox</t>
   </si>
 </sst>
 </file>
@@ -339,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,11 +359,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -398,6 +408,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -734,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -742,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -765,12 +791,12 @@
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
@@ -791,76 +817,64 @@
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.35">
@@ -869,68 +883,64 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>87</v>
+      <c r="I10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.35">
@@ -939,219 +949,213 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>87</v>
+      <c r="I14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="I18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="13"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="74" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>87</v>
+      <c r="I21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>87</v>
+      <c r="I22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L22" s="5"/>
     </row>
@@ -1161,17 +1165,19 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>87</v>
+      <c r="I23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L23" s="5"/>
     </row>
@@ -1181,17 +1187,19 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>87</v>
+      <c r="I24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L24" s="5"/>
     </row>
@@ -1201,17 +1209,19 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>87</v>
+      <c r="I25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L25" s="5"/>
     </row>
@@ -1219,25 +1229,27 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
-        <v>87</v>
+      <c r="I26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L26" s="5"/>
     </row>
@@ -1247,17 +1259,19 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
-        <v>87</v>
+      <c r="I27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L27" s="5"/>
     </row>
@@ -1267,17 +1281,19 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>87</v>
+      <c r="I28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="L28" s="5"/>
     </row>
@@ -1290,10 +1306,13 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
